--- a/IMP_TT.xlsx
+++ b/IMP_TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="9555" windowHeight="8955" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="9555" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
   <si>
     <t>DATE</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Sunday</t>
-  </si>
-  <si>
-    <t>TRIP</t>
   </si>
   <si>
     <t>HOME</t>
@@ -436,14 +433,74 @@
     <t>JAVA SCRIPT: DOM,</t>
   </si>
   <si>
-    <t>Difference between OPENUI|SAP UI5|FIORI</t>
+    <r>
+      <t>Difference between OPENUI|SAP UI5|FIORI---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00CC00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAPUI5|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oData|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Netweaver Gw</t>
+    </r>
+  </si>
+  <si>
+    <t>JS Objects</t>
+  </si>
+  <si>
+    <t>TollBarSpacer,OOPS</t>
+  </si>
+  <si>
+    <t>oops,</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Dash board Rating Indicator, OOPS, SAPUI5,GIT HUB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,8 +730,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00CC00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,6 +918,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -908,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -971,7 +1064,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -983,11 +1075,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,7 +1085,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1044,17 +1133,8 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1125,6 +1205,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1211,10 +1315,10 @@
     <mruColors>
       <color rgb="FFFFFFFF"/>
       <color rgb="FF0000CC"/>
+      <color rgb="FF00CC00"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FF990099"/>
       <color rgb="FFFF3399"/>
-      <color rgb="FF00CC00"/>
       <color rgb="FFD8F83A"/>
       <color rgb="FFFF6699"/>
       <color rgb="FF1CD63B"/>
@@ -5737,7 +5841,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="hibernate.emp1000" displayName="hibernate.emp1000" comment="7c64ed2a-f548-4ef3-be32-4f7b555ffab2" ref="G4:I5" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="hibernate.emp1000" displayName="hibernate.emp1000" comment="7c64ed2a-f548-4ef3-be32-4f7b555ffab2" ref="G4:I5" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="G4:I5"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
@@ -6037,7 +6141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6045,7 +6149,7 @@
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="81.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.7109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="58.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
@@ -6056,23 +6160,23 @@
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>44</v>
+      <c r="D1" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6085,20 +6189,20 @@
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="41">
+      <c r="C3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="37">
         <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>45</v>
+      <c r="G3" s="38" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6108,20 +6212,20 @@
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="41">
+      <c r="C4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="37">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6131,17 +6235,17 @@
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="37">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="41">
-        <v>8</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="60" t="s">
-        <v>70</v>
+      <c r="F5" s="56" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6151,17 +6255,17 @@
       <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="37">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="41">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="56" t="s">
         <v>69</v>
-      </c>
-      <c r="F6" s="60" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -6171,14 +6275,14 @@
       <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="41">
+      <c r="C7" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="37">
         <v>6</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6188,12 +6292,12 @@
       <c r="B8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="41"/>
+      <c r="C8" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="37"/>
       <c r="E8" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6203,12 +6307,12 @@
       <c r="B9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="41"/>
+      <c r="C9" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="37"/>
       <c r="E9" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6218,9 +6322,12 @@
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="C10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="37"/>
       <c r="E10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -6230,9 +6337,9 @@
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6242,9 +6349,12 @@
       <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="C12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="37"/>
       <c r="E12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6254,9 +6364,9 @@
       <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -6267,11 +6377,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D14" s="37"/>
       <c r="E14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6282,11 +6392,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="D15" s="37"/>
       <c r="E15" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6297,11 +6407,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="D16" s="37"/>
       <c r="E16" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6312,11 +6422,11 @@
         <v>20</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="D17" s="37"/>
       <c r="E17" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6327,11 +6437,11 @@
         <v>21</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="41"/>
+        <v>27</v>
+      </c>
+      <c r="D18" s="37"/>
       <c r="E18" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6342,11 +6452,11 @@
         <v>22</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="41"/>
+        <v>35</v>
+      </c>
+      <c r="D19" s="37"/>
       <c r="E19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6356,9 +6466,9 @@
       <c r="B20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="41"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6368,9 +6478,9 @@
       <c r="B21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="41"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6380,12 +6490,12 @@
       <c r="B22" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="41"/>
+      <c r="C22" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="37"/>
       <c r="E22" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6395,32 +6505,32 @@
       <c r="B23" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="41"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="34"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="90"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="30" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="36"/>
+      <c r="C26" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6433,7 +6543,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6443,259 +6553,261 @@
     <col min="3" max="3" width="47.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="52" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="90" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="83" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
-      <c r="B2" s="82" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="84" t="s">
+      <c r="C2" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="62"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="84">
+        <v>1</v>
+      </c>
+      <c r="B4" s="71">
+        <v>42385</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="79">
+        <v>2</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="90" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="69"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="91">
-        <v>1</v>
-      </c>
-      <c r="B4" s="78">
-        <v>42385</v>
-      </c>
-      <c r="C4" s="86" t="s">
+      <c r="H4" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="84">
+        <v>2</v>
+      </c>
+      <c r="B5" s="71">
+        <v>42386</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="86">
-        <v>2</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="90" t="s">
+      <c r="E5" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="F5" s="85" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="91">
-        <v>2</v>
-      </c>
-      <c r="B5" s="78">
-        <v>42386</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="91">
+      <c r="A6" s="84">
         <v>3</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="71">
         <v>42387</v>
       </c>
-      <c r="C6" s="86" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
+      <c r="C6" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="84">
         <v>4</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="71">
         <v>42388</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="C7" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="91">
+      <c r="A8" s="84">
         <v>5</v>
       </c>
-      <c r="B8" s="78">
+      <c r="B8" s="71">
         <v>42389</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
+      <c r="A9" s="84">
         <v>6</v>
       </c>
-      <c r="B9" s="78">
+      <c r="B9" s="71">
         <v>42390</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
+      <c r="A10" s="84">
         <v>7</v>
       </c>
-      <c r="B10" s="78">
+      <c r="B10" s="71">
         <v>42391</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
+      <c r="A11" s="84">
         <v>8</v>
       </c>
-      <c r="B11" s="78">
+      <c r="B11" s="71">
         <v>42392</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="91">
+      <c r="A12" s="84">
         <v>9</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="71">
         <v>42393</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
+      <c r="A13" s="84">
         <v>10</v>
       </c>
-      <c r="B13" s="78">
+      <c r="B13" s="71">
         <v>42394</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
+      <c r="A14" s="84">
         <v>11</v>
       </c>
-      <c r="B14" s="78">
+      <c r="B14" s="71">
         <v>42395</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="84">
         <v>12</v>
       </c>
-      <c r="B15" s="78">
+      <c r="B15" s="71">
         <v>42396</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="91">
+      <c r="A16" s="84">
         <v>13</v>
       </c>
-      <c r="B16" s="78">
+      <c r="B16" s="71">
         <v>42397</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
+      <c r="A17" s="84">
         <v>14</v>
       </c>
-      <c r="B17" s="78">
+      <c r="B17" s="71">
         <v>42398</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="91">
+      <c r="A18" s="84">
         <v>15</v>
       </c>
-      <c r="B18" s="78">
+      <c r="B18" s="71">
         <v>42399</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
+      <c r="A19" s="84">
         <v>16</v>
       </c>
-      <c r="B19" s="78">
+      <c r="B19" s="71">
         <v>42400</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6749,7 +6861,7 @@
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="43" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6913,7 +7025,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="10">
         <v>5</v>
@@ -6935,7 +7047,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="18">
         <f>SUM(B3:B22)</f>
@@ -6948,7 +7060,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="18">
         <v>25</v>
@@ -6956,7 +7068,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="18">
         <f>SUM(B24:B25)</f>
@@ -6974,7 +7086,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7003,113 +7115,116 @@
     <col min="26" max="26" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="69" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:26" s="62" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="61">
+        <v>42385</v>
+      </c>
+      <c r="E1" s="64">
+        <v>42386</v>
+      </c>
+      <c r="F1" s="61">
+        <v>42387</v>
+      </c>
+      <c r="G1" s="64">
+        <v>42388</v>
+      </c>
+      <c r="H1" s="63">
+        <v>42389</v>
+      </c>
+      <c r="I1" s="64">
+        <v>42390</v>
+      </c>
+      <c r="J1" s="61">
+        <v>42391</v>
+      </c>
+      <c r="K1" s="64">
+        <v>42392</v>
+      </c>
+      <c r="L1" s="61">
+        <v>42393</v>
+      </c>
+      <c r="M1" s="64">
+        <v>42394</v>
+      </c>
+      <c r="N1" s="61">
+        <v>42395</v>
+      </c>
+      <c r="O1" s="61">
+        <v>42396</v>
+      </c>
+      <c r="P1" s="64">
+        <v>42397</v>
+      </c>
+      <c r="Q1" s="61">
+        <v>42398</v>
+      </c>
+      <c r="R1" s="64">
+        <v>42399</v>
+      </c>
+      <c r="S1" s="63">
+        <v>42400</v>
+      </c>
+      <c r="T1" s="64">
+        <v>42401</v>
+      </c>
+      <c r="U1" s="61">
+        <v>42402</v>
+      </c>
+      <c r="V1" s="64">
+        <v>42403</v>
+      </c>
+      <c r="W1" s="61">
+        <v>42404</v>
+      </c>
+      <c r="X1" s="64">
+        <v>42405</v>
+      </c>
+      <c r="Y1" s="61">
+        <v>42406</v>
+      </c>
+      <c r="Z1" s="61">
+        <v>42407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="93"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
+        <v>1</v>
+      </c>
+      <c r="B4" s="94"/>
+      <c r="C4" s="46" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="68">
-        <v>42385</v>
-      </c>
-      <c r="E1" s="71">
-        <v>42386</v>
-      </c>
-      <c r="F1" s="68">
-        <v>42387</v>
-      </c>
-      <c r="G1" s="71">
-        <v>42388</v>
-      </c>
-      <c r="H1" s="70">
-        <v>42389</v>
-      </c>
-      <c r="I1" s="71">
-        <v>42390</v>
-      </c>
-      <c r="J1" s="68">
-        <v>42391</v>
-      </c>
-      <c r="K1" s="71">
-        <v>42392</v>
-      </c>
-      <c r="L1" s="68">
-        <v>42393</v>
-      </c>
-      <c r="M1" s="71">
-        <v>42394</v>
-      </c>
-      <c r="N1" s="68">
-        <v>42395</v>
-      </c>
-      <c r="O1" s="68">
-        <v>42396</v>
-      </c>
-      <c r="P1" s="71">
-        <v>42397</v>
-      </c>
-      <c r="Q1" s="68">
-        <v>42398</v>
-      </c>
-      <c r="R1" s="71">
-        <v>42399</v>
-      </c>
-      <c r="S1" s="70">
-        <v>42400</v>
-      </c>
-      <c r="T1" s="71">
-        <v>42401</v>
-      </c>
-      <c r="U1" s="68">
-        <v>42402</v>
-      </c>
-      <c r="V1" s="71">
-        <v>42403</v>
-      </c>
-      <c r="W1" s="68">
-        <v>42404</v>
-      </c>
-      <c r="X1" s="71">
-        <v>42405</v>
-      </c>
-      <c r="Y1" s="68">
-        <v>42406</v>
-      </c>
-      <c r="Z1" s="68">
-        <v>42407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="63"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="52">
-        <v>1</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="50" t="s">
-        <v>73</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52">
+      <c r="A5" s="48">
         <v>2</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="44" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="9">
@@ -7117,11 +7232,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="52">
+      <c r="A6" s="48">
         <v>3</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="44" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9">
@@ -7129,227 +7244,236 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
+      <c r="A7" s="48">
         <v>4</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="48" t="s">
-        <v>75</v>
+      <c r="B7" s="94"/>
+      <c r="C7" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="D7" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="52">
+      <c r="A8" s="48">
         <v>5</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="48" t="s">
-        <v>59</v>
+      <c r="B8" s="94"/>
+      <c r="C8" s="44" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="A9" s="48">
         <v>6</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="49" t="s">
-        <v>76</v>
+      <c r="B9" s="94"/>
+      <c r="C9" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
       </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="52">
+      <c r="A10" s="48">
         <v>7</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="49" t="s">
-        <v>77</v>
+      <c r="B10" s="94"/>
+      <c r="C10" s="45" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+      <c r="A11" s="48">
         <v>8</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="51" t="s">
-        <v>78</v>
+      <c r="B11" s="94"/>
+      <c r="C11" s="47" t="s">
+        <v>77</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="A12" s="48">
         <v>9</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="51" t="s">
-        <v>79</v>
+      <c r="B12" s="94"/>
+      <c r="C12" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52">
+      <c r="A13" s="48">
         <v>10</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="51" t="s">
-        <v>80</v>
+      <c r="B13" s="94"/>
+      <c r="C13" s="47" t="s">
+        <v>79</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52">
+      <c r="A14" s="48">
         <v>11</v>
       </c>
-      <c r="C14" s="51" t="s">
-        <v>81</v>
+      <c r="C14" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="52">
+      <c r="A15" s="48">
         <v>12</v>
       </c>
-      <c r="C15" s="51" t="s">
-        <v>82</v>
+      <c r="C15" s="47" t="s">
+        <v>81</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-      <c r="C16" s="51" t="s">
-        <v>83</v>
+      <c r="A16" s="48"/>
+      <c r="C16" s="47" t="s">
+        <v>82</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="52">
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="48">
         <v>13</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="48"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="52">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="48">
         <v>14</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>84</v>
+      <c r="C20" s="44" t="s">
+        <v>83</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="52">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
         <v>15</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="50" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="48"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="52">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
         <v>16</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="48">
         <v>17</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="52">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="48">
         <v>18</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="51" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="52"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="52">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="48">
         <v>19</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="47" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="52">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="48">
         <v>20</v>
       </c>
       <c r="D32" s="9">
@@ -7357,7 +7481,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="52">
+      <c r="A33" s="48">
         <v>21</v>
       </c>
       <c r="D33" s="9"/>
@@ -7366,44 +7490,44 @@
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="52">
+      <c r="A35" s="48">
         <v>22</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="48">
+        <v>23</v>
+      </c>
+      <c r="C36" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="48">
+        <v>24</v>
+      </c>
+      <c r="C37" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="52">
-        <v>23</v>
-      </c>
-      <c r="C36" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="52">
-        <v>24</v>
-      </c>
-      <c r="C37" s="58" t="s">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="48">
+        <v>25</v>
+      </c>
+      <c r="C38" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="52">
-        <v>25</v>
-      </c>
-      <c r="C38" s="58" t="s">
-        <v>88</v>
-      </c>
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="C39" s="59"/>
+      <c r="A39" s="48"/>
+      <c r="C39" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7432,7 +7556,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -7443,7 +7567,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -7454,18 +7578,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -7495,14 +7619,14 @@
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="10"/>
       <c r="D11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -7572,7 +7696,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -7583,12 +7707,12 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7600,19 +7724,19 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="10"/>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
-        <v>61</v>
+      <c r="B7" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -7627,11 +7751,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="10"/>
       <c r="D10" s="8"/>
     </row>
@@ -7645,28 +7769,28 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="10"/>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="43"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
@@ -7716,8 +7840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7729,376 +7853,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="D1" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="65"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="71">
+        <v>42385</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="D3" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="78">
-        <v>42385</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="52">
-        <v>1</v>
-      </c>
-      <c r="D3" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="78">
+      <c r="A4" s="71">
         <v>42386</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="78">
+      <c r="A5" s="71">
         <v>42387</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="78">
+      <c r="A6" s="71">
         <v>42388</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="78">
+      <c r="A7" s="71">
         <v>42389</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="78">
+      <c r="A8" s="71">
         <v>42390</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="78">
+      <c r="A9" s="71">
         <v>42391</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="78">
+      <c r="A10" s="71">
         <v>42392</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="78">
+      <c r="A11" s="71">
         <v>42393</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="78">
+      <c r="A12" s="71">
         <v>42394</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="78">
+      <c r="A13" s="71">
         <v>42395</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="78">
+      <c r="A14" s="71">
         <v>42396</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="78">
+      <c r="A15" s="71">
         <v>42397</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="78">
+      <c r="A16" s="71">
         <v>42398</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="78">
+      <c r="A17" s="71">
         <v>42399</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="78">
+      <c r="A18" s="71">
         <v>42400</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
+      <c r="A19" s="72"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
+      <c r="A20" s="72"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="73"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="73"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="73"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="73"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="73"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="73"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="73"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
+      <c r="A28" s="73"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="A29" s="73"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="A30" s="73"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="A31" s="73"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
+      <c r="A32" s="73"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="A33" s="73"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="73"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="80"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="73"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="80"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="A36" s="73"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="80"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="A37" s="73"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="80"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="A38" s="73"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="80"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="A39" s="73"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="80"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="A40" s="73"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="80"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="A41" s="73"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="80"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+      <c r="A42" s="73"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="80"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
+      <c r="A43" s="73"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="80"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
+      <c r="A44" s="73"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="80"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
+      <c r="A45" s="73"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="80"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
+      <c r="A46" s="73"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="80"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
+      <c r="A47" s="73"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="80"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
+      <c r="A48" s="73"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="80"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
+      <c r="A49" s="73"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
+      <c r="A50" s="73"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="52"/>
+      <c r="C51" s="48"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="52"/>
+      <c r="C52" s="48"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="52"/>
+      <c r="C53" s="48"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="52"/>
+      <c r="C54" s="48"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="52"/>
+      <c r="C55" s="48"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="52"/>
+      <c r="C56" s="48"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="52"/>
+      <c r="C57" s="48"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="52"/>
+      <c r="C58" s="48"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="52"/>
+      <c r="C59" s="48"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="52"/>
+      <c r="C60" s="48"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="52"/>
+      <c r="C61" s="48"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="52"/>
+      <c r="C62" s="48"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="52"/>
+      <c r="C63" s="48"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/IMP_TT.xlsx
+++ b/IMP_TT.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="9555" windowHeight="8955"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="9555" windowHeight="8895"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Techn" sheetId="8" r:id="rId4"/>
-    <sheet name="Jan 11" sheetId="4" r:id="rId5"/>
-    <sheet name="Jan 12" sheetId="5" r:id="rId6"/>
-    <sheet name="Jan 13" sheetId="6" r:id="rId7"/>
-    <sheet name="Jan 15" sheetId="7" r:id="rId8"/>
-    <sheet name="SAP UI" sheetId="9" r:id="rId9"/>
-    <sheet name="JS|Others" sheetId="10" r:id="rId10"/>
+    <sheet name="Documentation" sheetId="11" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Techn" sheetId="8" r:id="rId5"/>
+    <sheet name="Jan 11" sheetId="4" r:id="rId6"/>
+    <sheet name="Jan 12" sheetId="5" r:id="rId7"/>
+    <sheet name="Jan 13" sheetId="6" r:id="rId8"/>
+    <sheet name="Jan 15" sheetId="7" r:id="rId9"/>
+    <sheet name="SAP UI" sheetId="9" r:id="rId10"/>
+    <sheet name="JS|Others" sheetId="10" r:id="rId11"/>
+    <sheet name="Jquery" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet5" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="9" hidden="1">'JS|Others'!$G$4:$G$5</definedName>
+    <definedName name="ExternalData_1" localSheetId="10" hidden="1">'JS|Others'!$G$4:$G$5</definedName>
     <definedName name="F">'SAP UI'!$D$3</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="SAP_HTML5_Application_Using_MVC">'SAP UI'!$D$3</definedName>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
   <si>
     <t>DATE</t>
   </si>
@@ -142,29 +145,6 @@
   </si>
   <si>
     <t>Enjoy</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HALF</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DAY</t>
-    </r>
   </si>
   <si>
     <t>LOT OF WORK PENDING</t>
@@ -487,20 +467,53 @@
     <t>oops,</t>
   </si>
   <si>
-    <t>30min</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
     <t>Dash board Rating Indicator, OOPS, SAPUI5,GIT HUB</t>
+  </si>
+  <si>
+    <t>JSON BINDING--TESTING(SELENIUM)--XSLT</t>
+  </si>
+  <si>
+    <t>Duplicate SAPNEXT to WORKFLOW</t>
+  </si>
+  <si>
+    <t>Firebase</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>KICK</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>jquery</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Jquery effects</t>
+  </si>
+  <si>
+    <t>Jquery Overview</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yy;@"/>
+  </numFmts>
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,13 +612,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -760,8 +766,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,6 +945,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -999,9 +1032,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1064,28 +1097,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1094,28 +1125,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1130,7 +1161,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1159,19 +1190,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1182,16 +1213,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1201,16 +1232,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1222,15 +1253,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1313,12 +1367,12 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFF3399"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FF0000CC"/>
       <color rgb="FF00CC00"/>
       <color rgb="FFFFFF66"/>
       <color rgb="FF990099"/>
-      <color rgb="FFFF3399"/>
       <color rgb="FFD8F83A"/>
       <color rgb="FFFF6699"/>
       <color rgb="FF1CD63B"/>
@@ -2243,7 +2297,7 @@
                 <a:srgbClr val="00B0F0"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>UI</a:t>
+            <a:t>SAP UI</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1100" b="1" i="0">
             <a:solidFill>
@@ -2259,13 +2313,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2581275</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2334,13 +2388,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2590799</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2409,13 +2463,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5819,6 +5873,84 @@
               </a:solidFill>
             </a:rPr>
             <a:t>	}).listen(80);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="485775"/>
+          <a:ext cx="6515100" cy="3933825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>JQuery</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>1.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6139,398 +6271,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="81.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="58.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="156.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="97">
+        <v>75271</v>
+      </c>
+      <c r="C1" s="97">
+        <v>75272</v>
+      </c>
+      <c r="D1" s="97">
+        <v>75273</v>
+      </c>
+      <c r="E1" s="97">
+        <v>75274</v>
+      </c>
+      <c r="F1" s="97">
+        <v>75275</v>
+      </c>
+      <c r="G1" s="97">
+        <v>75276</v>
+      </c>
+      <c r="H1" s="97">
+        <v>75277</v>
+      </c>
+      <c r="I1" s="97">
+        <v>75278</v>
+      </c>
+      <c r="J1" s="97">
+        <v>75279</v>
+      </c>
+      <c r="K1" s="97">
+        <v>75280</v>
+      </c>
+      <c r="L1" s="97">
+        <v>75281</v>
+      </c>
+      <c r="M1" s="97">
+        <v>75282</v>
+      </c>
+      <c r="N1" s="97">
+        <v>75283</v>
+      </c>
+      <c r="O1" s="97">
+        <v>75284</v>
+      </c>
+      <c r="P1" s="97">
+        <v>75285</v>
+      </c>
+      <c r="Q1" s="97">
+        <v>75286</v>
+      </c>
+      <c r="R1" s="97">
+        <v>75287</v>
+      </c>
+      <c r="S1" s="97">
+        <v>75288</v>
+      </c>
+      <c r="T1" s="97">
+        <v>75289</v>
+      </c>
+      <c r="U1" s="97">
+        <v>75290</v>
+      </c>
+      <c r="V1" s="97">
+        <v>75291</v>
+      </c>
+      <c r="W1" s="97">
+        <v>75292</v>
+      </c>
+      <c r="X1" s="97">
+        <v>75293</v>
+      </c>
+      <c r="Y1" s="97">
+        <v>75294</v>
+      </c>
+      <c r="Z1" s="97">
+        <v>75295</v>
+      </c>
+      <c r="AA1" s="97">
+        <v>75296</v>
+      </c>
+      <c r="AB1" s="97">
+        <v>75297</v>
+      </c>
+      <c r="AC1" s="97">
+        <v>75298</v>
+      </c>
+      <c r="AD1" s="97">
+        <v>75299</v>
+      </c>
+      <c r="AE1" s="97">
+        <v>75300</v>
+      </c>
+      <c r="AF1" s="97">
+        <v>75301</v>
+      </c>
+      <c r="AG1" s="97">
+        <v>75302</v>
+      </c>
+      <c r="AH1" s="97">
+        <v>75303</v>
+      </c>
+      <c r="AI1" s="97">
+        <v>75304</v>
+      </c>
+      <c r="AJ1" s="97">
+        <v>75305</v>
+      </c>
+      <c r="AK1" s="97">
+        <v>75306</v>
+      </c>
+      <c r="AL1" s="97">
+        <v>75307</v>
+      </c>
+      <c r="AM1" s="97">
+        <v>75308</v>
+      </c>
+      <c r="AN1" s="97">
+        <v>75309</v>
+      </c>
+      <c r="AO1" s="97">
+        <v>75310</v>
+      </c>
+      <c r="AP1" s="97">
+        <v>75311</v>
+      </c>
+      <c r="AQ1" s="97">
+        <v>75312</v>
+      </c>
+      <c r="AR1" s="97">
+        <v>75313</v>
+      </c>
+      <c r="AS1" s="97">
+        <v>75314</v>
+      </c>
+      <c r="AT1" s="97">
+        <v>75315</v>
+      </c>
+      <c r="AU1" s="97">
+        <v>75316</v>
+      </c>
+      <c r="AV1" s="97">
+        <v>75317</v>
+      </c>
+      <c r="AW1" s="97">
+        <v>75318</v>
+      </c>
+      <c r="AX1" s="97">
+        <v>75319</v>
+      </c>
+      <c r="AY1" s="97">
+        <v>75320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42380</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="B2" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="37">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42381</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="E2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="37">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42382</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="F2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="37">
-        <v>8</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42383</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="G2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="37">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>42384</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="H2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="37">
-        <v>6</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>42385</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="I2" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>42386</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="J2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42387</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="K2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42388</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="L2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42389</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="M2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42390</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="N2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>42391</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="O2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>42392</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="P2" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>42393</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="Q2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>42394</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="R2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>42395</v>
-      </c>
-      <c r="B18" s="13" t="s">
+      <c r="S2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>42396</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="T2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42397</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="U2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42398</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="V2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
-        <v>42399</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="W2" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <v>42400</v>
-      </c>
-      <c r="B23" s="26" t="s">
+      <c r="X2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="90"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="91"/>
+      <c r="Y2" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG2" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH2" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI2" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ2" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK2" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL2" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM2" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN2" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO2" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP2" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="AQ2" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR2" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS2" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT2" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU2" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV2" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW2" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX2" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY2" s="82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6540,10 +6622,430 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I63"/>
+  <sheetViews>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="69">
+        <v>42385</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="46">
+        <v>1</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="69">
+        <v>42386</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="69">
+        <v>42387</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
+        <v>42388</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
+        <v>42389</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
+        <v>42390</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="69">
+        <v>42391</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
+        <v>42392</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="69">
+        <v>42393</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
+        <v>42394</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="69">
+        <v>42395</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="69">
+        <v>42396</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="69">
+        <v>42397</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="69">
+        <v>42398</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="69">
+        <v>42399</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="69">
+        <v>42400</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="71"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="71"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="71"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="71"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="71"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="71"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="71"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="71"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="71"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="71"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="71"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="71"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="71"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="71"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="71"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="71"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="71"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="71"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="71"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="71"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="71"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="71"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="71"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="71"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="71"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="71"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="46"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="46"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="46"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="46"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="46"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="46"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="46"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="46"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="46"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="46"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="46"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="46"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="46"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="C:\Sigma_Aldrich\Learning\SAP\How to Build a SAP HTML5 Application Using MVC with the SAPUI5 Application Development Tool.pdf"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;CSAPUI5</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6553,261 +7055,265 @@
     <col min="3" max="3" width="47.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="48" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="83" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="81" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="75" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="77" t="s">
+      <c r="C2" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="60"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="82">
+        <v>1</v>
+      </c>
+      <c r="B4" s="69">
+        <v>42385</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="77">
+        <v>2</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="62"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="84">
-        <v>1</v>
-      </c>
-      <c r="B4" s="71">
-        <v>42385</v>
-      </c>
-      <c r="C4" s="79" t="s">
+      <c r="H4" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="82">
+        <v>2</v>
+      </c>
+      <c r="B5" s="69">
+        <v>42386</v>
+      </c>
+      <c r="C5" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="79">
-        <v>2</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="H4" s="83" t="s">
+      <c r="E5" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="F5" s="83" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="84">
-        <v>2</v>
-      </c>
-      <c r="B5" s="71">
-        <v>42386</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="84">
+      <c r="A6" s="82">
         <v>3</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="69">
         <v>42387</v>
       </c>
-      <c r="C6" s="79" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="C6" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="84">
+      <c r="A7" s="82">
         <v>4</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="69">
         <v>42388</v>
       </c>
-      <c r="C7" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
+      <c r="C7" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="84">
+      <c r="A8" s="82">
         <v>5</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="69">
         <v>42389</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="84">
+      <c r="A9" s="82">
         <v>6</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="69">
         <v>42390</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="84">
+      <c r="A10" s="82">
         <v>7</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="69">
         <v>42391</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="84">
+      <c r="A11" s="82">
         <v>8</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="69">
         <v>42392</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
+      <c r="A12" s="82">
         <v>9</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B12" s="69">
         <v>42393</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="82">
         <v>10</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="69">
         <v>42394</v>
       </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="84">
+      <c r="A14" s="82">
         <v>11</v>
       </c>
-      <c r="B14" s="71">
+      <c r="B14" s="69">
         <v>42395</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="84">
+      <c r="A15" s="82">
         <v>12</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="69">
         <v>42396</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="84">
+      <c r="A16" s="82">
         <v>13</v>
       </c>
-      <c r="B16" s="71">
+      <c r="B16" s="69">
         <v>42397</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="84">
+      <c r="A17" s="82">
         <v>14</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="69">
         <v>42398</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="C17" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="82">
         <v>15</v>
       </c>
-      <c r="B18" s="71">
+      <c r="B18" s="69">
         <v>42399</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
+      <c r="C18" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="84">
+      <c r="A19" s="82">
         <v>16</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="69">
         <v>42400</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6828,11 +7334,446 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.7109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="156.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42380</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="94">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42381</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="94">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42382</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="94">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42383</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="94">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>42384</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="94">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>42385</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>42386</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42387</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42388</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="94"/>
+      <c r="E11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42389</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="94"/>
+      <c r="E12" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42390</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>42391</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>42392</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>42393</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="94"/>
+      <c r="E16" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>42394</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>42395</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>42396</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="94">
+        <v>8</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42397</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42398</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>42399</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>42400</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="87"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="31"/>
+      <c r="C24" s="88"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="89"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -6848,20 +7789,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="43" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="41" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7025,7 +7964,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="10">
         <v>5</v>
@@ -7060,7 +7999,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="18">
         <v>25</v>
@@ -7068,7 +8007,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="18">
         <f>SUM(B24:B25)</f>
@@ -7081,20 +8020,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z39"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
@@ -7115,419 +8054,354 @@
     <col min="26" max="26" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="62" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:26" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="96">
+        <v>75271</v>
+      </c>
+      <c r="E1" s="96">
+        <v>75272</v>
+      </c>
+      <c r="F1" s="96">
+        <v>75273</v>
+      </c>
+      <c r="G1" s="96">
+        <v>75274</v>
+      </c>
+      <c r="H1" s="96">
+        <v>75275</v>
+      </c>
+      <c r="I1" s="96">
+        <v>75276</v>
+      </c>
+      <c r="J1" s="96">
+        <v>75277</v>
+      </c>
+      <c r="K1" s="95"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="99"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
+        <v>1</v>
+      </c>
+      <c r="B4" s="100"/>
+      <c r="C4" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="60" t="s">
+      <c r="D4" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
+        <v>2</v>
+      </c>
+      <c r="B5" s="100"/>
+      <c r="C5" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>3</v>
+      </c>
+      <c r="B6" s="100"/>
+      <c r="C6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
+        <v>4</v>
+      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="61">
-        <v>42385</v>
-      </c>
-      <c r="E1" s="64">
-        <v>42386</v>
-      </c>
-      <c r="F1" s="61">
-        <v>42387</v>
-      </c>
-      <c r="G1" s="64">
-        <v>42388</v>
-      </c>
-      <c r="H1" s="63">
-        <v>42389</v>
-      </c>
-      <c r="I1" s="64">
-        <v>42390</v>
-      </c>
-      <c r="J1" s="61">
-        <v>42391</v>
-      </c>
-      <c r="K1" s="64">
-        <v>42392</v>
-      </c>
-      <c r="L1" s="61">
-        <v>42393</v>
-      </c>
-      <c r="M1" s="64">
-        <v>42394</v>
-      </c>
-      <c r="N1" s="61">
-        <v>42395</v>
-      </c>
-      <c r="O1" s="61">
-        <v>42396</v>
-      </c>
-      <c r="P1" s="64">
-        <v>42397</v>
-      </c>
-      <c r="Q1" s="61">
-        <v>42398</v>
-      </c>
-      <c r="R1" s="64">
-        <v>42399</v>
-      </c>
-      <c r="S1" s="63">
-        <v>42400</v>
-      </c>
-      <c r="T1" s="64">
-        <v>42401</v>
-      </c>
-      <c r="U1" s="61">
-        <v>42402</v>
-      </c>
-      <c r="V1" s="64">
-        <v>42403</v>
-      </c>
-      <c r="W1" s="61">
-        <v>42404</v>
-      </c>
-      <c r="X1" s="64">
-        <v>42405</v>
-      </c>
-      <c r="Y1" s="61">
-        <v>42406</v>
-      </c>
-      <c r="Z1" s="61">
-        <v>42407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="93"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
+        <v>5</v>
+      </c>
+      <c r="B8" s="100"/>
+      <c r="C8" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
+        <v>6</v>
+      </c>
+      <c r="B9" s="100"/>
+      <c r="C9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
+        <v>7</v>
+      </c>
+      <c r="B10" s="100"/>
+      <c r="C10" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
+        <v>8</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
+        <v>9</v>
+      </c>
+      <c r="B12" s="100"/>
+      <c r="C12" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
+        <v>10</v>
+      </c>
+      <c r="B13" s="100"/>
+      <c r="C13" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
+        <v>11</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
+        <v>12</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="46"/>
+      <c r="C16" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="46">
+        <v>13</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="9">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="46"/>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="46">
+        <v>14</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="9">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
-        <v>2</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
-        <v>3</v>
-      </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
-        <v>4</v>
-      </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
-        <v>5</v>
-      </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="9">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="46">
+        <v>15</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
-        <v>6</v>
-      </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="9">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="46">
+        <v>16</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
-        <v>7</v>
-      </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="9">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="46"/>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="46">
+        <v>17</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
-        <v>8</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="9">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="46"/>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="46">
+        <v>18</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
-        <v>9</v>
-      </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
-        <v>10</v>
-      </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
-        <v>11</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
-        <v>12</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="C16" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="9"/>
-      <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
-        <v>13</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="9">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="46"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="46">
+        <v>19</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="46">
+        <v>20</v>
+      </c>
+      <c r="D73" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
-        <v>14</v>
-      </c>
-      <c r="C20" s="44" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="46">
+        <v>21</v>
+      </c>
+      <c r="D74" s="9"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="46">
+        <v>22</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="46">
+        <v>23</v>
+      </c>
+      <c r="C77" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="48">
-        <v>15</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="48">
-        <v>16</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
-        <v>17</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="48">
-        <v>18</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="48">
-        <v>19</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="48">
-        <v>20</v>
-      </c>
-      <c r="D32" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="48">
-        <v>21</v>
-      </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="48">
-        <v>22</v>
-      </c>
-      <c r="C35" s="54" t="s">
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="46">
+        <v>24</v>
+      </c>
+      <c r="C78" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="48">
-        <v>23</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="48">
-        <v>24</v>
-      </c>
-      <c r="C37" s="54" t="s">
+      <c r="D78" s="9"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="46">
+        <v>25</v>
+      </c>
+      <c r="C79" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="48">
-        <v>25</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="C39" s="55"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
+      <c r="C80" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7539,11 +8413,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -7556,7 +8430,7 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -7567,7 +8441,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -7578,18 +8452,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -7619,14 +8493,14 @@
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="10"/>
       <c r="D11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -7673,7 +8547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D17"/>
   <sheetViews>
@@ -7696,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -7707,12 +8581,12 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -7724,19 +8598,19 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="10"/>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
-        <v>60</v>
+      <c r="B7" s="39" t="s">
+        <v>59</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -7751,11 +8625,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="10"/>
       <c r="D10" s="8"/>
     </row>
@@ -7769,28 +8643,28 @@
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="10"/>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="10"/>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="10"/>
       <c r="D15" s="8"/>
     </row>
@@ -7807,7 +8681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7821,7 +8695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7834,404 +8708,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
-  <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="71">
-        <v>42385</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="71">
-        <v>42386</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="71">
-        <v>42387</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="71">
-        <v>42388</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="71">
-        <v>42389</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="71">
-        <v>42390</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="71">
-        <v>42391</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="71">
-        <v>42392</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="71">
-        <v>42393</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="71">
-        <v>42394</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
-        <v>42395</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="71">
-        <v>42396</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="71">
-        <v>42397</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="71">
-        <v>42398</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="71">
-        <v>42399</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
-        <v>42400</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="73"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="73"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="73"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="73"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="73"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="73"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="73"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="48"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="48"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="48"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="48"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="48"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="48"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="48"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="48"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="48"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="48"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="48"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="48"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="48"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="C:\Sigma_Aldrich\Learning\SAP\How to Build a SAP HTML5 Application Using MVC with the SAPUI5 Application Development Tool.pdf"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <headerFooter>
-    <oddHeader>&amp;CSAPUI5</oddHeader>
-  </headerFooter>
-</worksheet>
 </file>
--- a/IMP_TT.xlsx
+++ b/IMP_TT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="9555" windowHeight="8895"/>
+    <workbookView xWindow="240" yWindow="315" windowWidth="9555" windowHeight="8835" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="11" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Techn" sheetId="8" r:id="rId5"/>
     <sheet name="Jan 11" sheetId="4" r:id="rId6"/>
     <sheet name="Jan 12" sheetId="5" r:id="rId7"/>
-    <sheet name="Jan 13" sheetId="6" r:id="rId8"/>
-    <sheet name="Jan 15" sheetId="7" r:id="rId9"/>
+    <sheet name="Jan 13" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="Jan 15" sheetId="7" state="hidden" r:id="rId9"/>
     <sheet name="SAP UI" sheetId="9" r:id="rId10"/>
     <sheet name="JS|Others" sheetId="10" r:id="rId11"/>
-    <sheet name="Jquery" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet5" sheetId="13" r:id="rId13"/>
+    <sheet name="Q's" sheetId="12" r:id="rId12"/>
+    <sheet name="Quick " sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="10" hidden="1">'JS|Others'!$G$4:$G$5</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="135">
   <si>
     <t>DATE</t>
   </si>
@@ -239,12 +239,6 @@
     <t>**</t>
   </si>
   <si>
-    <t>Jmeter-2, Debugging KPI-4(JS),  OOPS -2, Android - 0, SAPUI5-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OOPS -2(Self),  Debugging KPI-4(Mani),  GWT - 2(BIPIN), Android - 0, SAPUI5-3(Praveen)</t>
-  </si>
-  <si>
     <t>JMETER</t>
   </si>
   <si>
@@ -278,27 +272,12 @@
     <t>Successful installation and Simple proj</t>
   </si>
   <si>
-    <t>OOPS till 14; GWT-14-16;SAPUI5-Actions</t>
-  </si>
-  <si>
     <t>12-01--&gt; OOPS cntd…Hibernate(5%)…sapui5--&gt;Actions</t>
   </si>
   <si>
-    <t>JAVASCRIPT(OOPS), JQUERY$,SAPUI5-ACTIONS,CORE JAVA</t>
-  </si>
-  <si>
     <t>semantic box-rating indicator--SAPUI5</t>
   </si>
   <si>
-    <t>YOU got LOT of TIME</t>
-  </si>
-  <si>
-    <t>RATING INDICATOR+Binding---SAPUI5(5 hours)… Framework--KPI(abbreviateNumber)</t>
-  </si>
-  <si>
-    <t>its javascipt turn</t>
-  </si>
-  <si>
     <t>***</t>
   </si>
   <si>
@@ -354,9 +333,6 @@
   </si>
   <si>
     <t>JMETER Performance</t>
-  </si>
-  <si>
-    <t>Its javascipt turn</t>
   </si>
   <si>
     <t>TOPICS</t>
@@ -458,9 +434,6 @@
     </r>
   </si>
   <si>
-    <t>JS Objects</t>
-  </si>
-  <si>
     <t>TollBarSpacer,OOPS</t>
   </si>
   <si>
@@ -491,9 +464,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>jquery</t>
   </si>
   <si>
@@ -504,6 +474,84 @@
   </si>
   <si>
     <t>Jquery Overview</t>
+  </si>
+  <si>
+    <t>sapui5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jquery</t>
+  </si>
+  <si>
+    <t>Ajax methods</t>
+  </si>
+  <si>
+    <t>sap workflow,hana,jquery.getJSON,InboxEditorConfig</t>
+  </si>
+  <si>
+    <t>workflow app inbox creation,Context Filter</t>
+  </si>
+  <si>
+    <t>new app</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YOU got LOT of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TIME-11:30||Workflow, Understanding binding of odata service</t>
+    </r>
+  </si>
+  <si>
+    <t>ajax.getJSON,ajax.({contentType,success,url,username,password,asynctype,data,dataType})</t>
+  </si>
+  <si>
+    <t>ajax.getJSON,$("#id").removeClass,addClass</t>
+  </si>
+  <si>
+    <t>Understanding SSO Log in code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Over All Achievements</t>
+  </si>
+  <si>
+    <t>sap ui5</t>
+  </si>
+  <si>
+    <t>binding</t>
+  </si>
+  <si>
+    <t>selenium</t>
+  </si>
+  <si>
+    <t>jmeter</t>
+  </si>
+  <si>
+    <t>java script</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>sap ui5 ppt</t>
+  </si>
+  <si>
+    <t>sap ui5 pdf</t>
   </si>
 </sst>
 </file>
@@ -513,7 +561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,8 +829,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +1013,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -1034,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1278,13 +1340,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1368,10 +1441,10 @@
   <colors>
     <mruColors>
       <color rgb="FFFF3399"/>
+      <color rgb="FF0000CC"/>
+      <color rgb="FFFFFF66"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FF0000CC"/>
       <color rgb="FF00CC00"/>
-      <color rgb="FFFFFF66"/>
       <color rgb="FF990099"/>
       <color rgb="FFD8F83A"/>
       <color rgb="FFFF6699"/>
@@ -1463,7 +1536,7 @@
               <a:latin typeface="Angsana New" panose="02020603050405020304" pitchFamily="18" charset="-34"/>
               <a:cs typeface="Angsana New" panose="02020603050405020304" pitchFamily="18" charset="-34"/>
             </a:rPr>
-            <a:t>* Broad   classification   of  Usage = { </a:t>
+            <a:t>* "Broad   classification   of   Time   Usage" = { </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1966,7 +2039,10 @@
           <a:r>
             <a:rPr lang="en-IN" sz="1600" b="1" u="none">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
             <a:t>Dreams--Plans--Ideas--Passion--Desire--Will--Determination</a:t>
@@ -1975,7 +2051,10 @@
         <a:p>
           <a:endParaRPr lang="en-IN" sz="1050" b="1" u="none">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -2068,7 +2147,7 @@
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>*  Sleep: | 0-8 | 8 hours</a:t>
+            <a:t>*  Sleep: | 0-6| 6 hours</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2313,13 +2392,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2581275</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2388,13 +2467,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2590799</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2463,13 +2542,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5939,19 +6018,597 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>JQuery</a:t>
+            <a:t>1. why we disable web security? what exactly is SSO??</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>1.</a:t>
-          </a:r>
+            <a:t>2. All about manifest.json -- u shd decare init files in   that jus lik in android</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>3. All about cordova , hosts.js</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>4. Project age</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>5. CSS over riding-- shrikant</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>6. i18n... how exactly lang can be changed?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>7. All models--defi-- diff--adv--peculiears</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>8. index.html vs main.html vs manifrst.json</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>9. Document frequently used git commands</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>10.  Themes intigration || </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>library-parameters.json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>11. What's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="0000CC"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SAP NetWeaver Application Server </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="0000CC"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF3399"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bingo!..  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>can</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> I </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> create my </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="0000CC"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>own property in any control</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>??</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>!!..[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Editing Library files</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>].</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13. Install Stash,  note pad++,  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>13. What is </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Web Dynpro (Java)?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="781050"/>
+          <a:ext cx="7181850" cy="5105400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2400" b="1" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Required Software Components for SAPUI5 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tools</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>For the installation of SAPUI5 tools on SAP HANA XS, download the SAPUI5 TOOLS IDE PLUGIN 1.00 component from the SAP Software Download Center on SAP Service Marketplace at http://service.sap.com/swdc </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SAP THEMES-HCB,GREFL,BC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>An alternative way to create and initialize the control in a more jQuery-style manner is also available: </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>$(function(){ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>$("#uiArea").sapui("Button", "btn", { </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>text:"Hello World!", </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pr</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>wefeess:function(){$("#btn").fadeOut();} </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}); });</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0" smtClean="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6271,10 +6928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6287,7 +6944,7 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B1" s="97">
         <v>75271</v>
@@ -6441,7 +7098,7 @@
       </c>
     </row>
     <row r="2" spans="1:51" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="99" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="82" t="s">
@@ -6596,25 +7253,67 @@
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>120</v>
+      <c r="A4" s="103" t="s">
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>118</v>
+      <c r="A6" s="104" t="s">
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A10" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" s="105"/>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6625,7 +7324,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6641,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E1" s="72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F1" s="63"/>
       <c r="G1" s="63"/>
@@ -6673,13 +7372,13 @@
         <v>42385</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C3" s="46">
         <v>1</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E3" s="63"/>
       <c r="F3" s="63"/>
@@ -6700,27 +7399,31 @@
         <v>42387</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="D5" s="106" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="69">
         <v>42388</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
+      <c r="D6" s="106" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <v>42389</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
@@ -6730,7 +7433,7 @@
         <v>42390</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
@@ -6740,7 +7443,7 @@
         <v>42391</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
@@ -6750,7 +7453,7 @@
         <v>42392</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -6760,7 +7463,7 @@
         <v>42393</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="46"/>
@@ -6770,7 +7473,7 @@
         <v>42394</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -6780,7 +7483,7 @@
         <v>42395</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -6790,7 +7493,7 @@
         <v>42396</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -6800,7 +7503,7 @@
         <v>42397</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -7031,9 +7734,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="C:\Sigma_Aldrich\Learning\SAP\How to Build a SAP HTML5 Application Using MVC with the SAPUI5 Application Development Tool.pdf"/>
+    <hyperlink ref="D5" r:id="rId2" display="sap ui5"/>
+    <hyperlink ref="D6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;CSAPUI5</oddHeader>
   </headerFooter>
@@ -7045,7 +7750,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7067,19 +7772,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G2" s="81" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -7097,25 +7802,25 @@
         <v>42385</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D4" s="77">
         <v>2</v>
       </c>
       <c r="E4" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="81" t="s">
         <v>94</v>
-      </c>
-      <c r="F4" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>100</v>
-      </c>
-      <c r="I4" s="81" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -7126,13 +7831,13 @@
         <v>42386</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H5" s="81"/>
       <c r="I5" s="81"/>
@@ -7145,7 +7850,7 @@
         <v>42387</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D6" s="77"/>
       <c r="E6" s="77"/>
@@ -7161,7 +7866,7 @@
         <v>42388</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D7" s="77"/>
       <c r="E7" s="77"/>
@@ -7283,7 +7988,7 @@
         <v>42398</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D17" s="77"/>
       <c r="E17" s="77"/>
@@ -7297,7 +8002,7 @@
         <v>42399</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D18" s="77"/>
       <c r="E18" s="77"/>
@@ -7336,12 +8041,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="12" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="56"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7351,11 +8062,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7363,8 +8075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7404,22 +8116,18 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42380</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="94">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="C3" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="94"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="55" t="s">
         <v>47</v>
       </c>
@@ -7435,19 +8143,19 @@
         <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="D4" s="94">
         <v>9</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7458,16 +8166,16 @@
         <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="D5" s="94">
         <v>8</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7477,17 +8185,17 @@
       <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>66</v>
+      <c r="C6" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="D6" s="94">
         <v>8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7498,13 +8206,16 @@
         <v>24</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D7" s="94">
         <v>6</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>87</v>
+        <v>121</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -7515,7 +8226,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="D8" s="94"/>
       <c r="E8" s="24" t="s">
@@ -7530,7 +8241,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D9" s="94"/>
       <c r="E9" s="24" t="s">
@@ -7545,7 +8256,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D10" s="94"/>
       <c r="E10" s="9" t="s">
@@ -7572,7 +8283,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D12" s="94"/>
       <c r="E12" s="9" t="s">
@@ -7587,7 +8298,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D13" s="94"/>
       <c r="E13" s="9" t="s">
@@ -7675,7 +8386,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="D19" s="94">
         <v>8</v>
@@ -7692,7 +8403,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D20" s="94"/>
       <c r="E20" s="9" t="s">
@@ -7707,7 +8418,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D21" s="94"/>
       <c r="E21" s="9" t="s">
@@ -7964,7 +8675,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="10">
         <v>5</v>
@@ -8022,10 +8733,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8056,13 +8767,13 @@
   <sheetData>
     <row r="1" spans="1:26" s="60" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B1" s="90" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D1" s="96">
         <v>75271</v>
@@ -8108,26 +8819,26 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
-      <c r="B3" s="99"/>
+      <c r="B3" s="101"/>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="46">
         <v>1</v>
       </c>
-      <c r="B4" s="100"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="44" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46">
         <v>2</v>
       </c>
-      <c r="B5" s="100"/>
+      <c r="B5" s="102"/>
       <c r="C5" s="42" t="s">
         <v>5</v>
       </c>
@@ -8137,7 +8848,7 @@
       <c r="A6" s="46">
         <v>3</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="42" t="s">
         <v>6</v>
       </c>
@@ -8147,9 +8858,9 @@
       <c r="A7" s="46">
         <v>4</v>
       </c>
-      <c r="B7" s="100"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="42" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -8157,9 +8868,9 @@
       <c r="A8" s="46">
         <v>5</v>
       </c>
-      <c r="B8" s="100"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -8167,9 +8878,9 @@
       <c r="A9" s="46">
         <v>6</v>
       </c>
-      <c r="B9" s="100"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="43" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -8177,9 +8888,9 @@
       <c r="A10" s="46">
         <v>7</v>
       </c>
-      <c r="B10" s="100"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="43" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -8187,9 +8898,9 @@
       <c r="A11" s="46">
         <v>8</v>
       </c>
-      <c r="B11" s="100"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="45" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -8197,9 +8908,9 @@
       <c r="A12" s="46">
         <v>9</v>
       </c>
-      <c r="B12" s="100"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="45" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -8207,9 +8918,9 @@
       <c r="A13" s="46">
         <v>10</v>
       </c>
-      <c r="B13" s="100"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="45" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -8218,7 +8929,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -8227,181 +8938,178 @@
         <v>12</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
       <c r="C16" s="45" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="9"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="46">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="46">
         <v>13</v>
       </c>
-      <c r="C59" s="47" t="s">
+      <c r="C18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D18" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="46">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="46"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="46">
         <v>14</v>
       </c>
-      <c r="C61" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="9">
+      <c r="C20" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="46">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="46">
         <v>15</v>
       </c>
-      <c r="C63" s="48" t="s">
+      <c r="C22" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D22" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
-      <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="46">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="46">
         <v>16</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C24" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D24" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
-      <c r="D66" s="9"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="46">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="46">
         <v>17</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C26" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D26" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
-      <c r="D68" s="9"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="46">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="46"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="46">
         <v>18</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C28" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D28" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="46">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="46">
         <v>19</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C30" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="46">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="46">
         <v>20</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D32" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="46">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="46">
         <v>21</v>
       </c>
-      <c r="D74" s="9"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="9"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="46">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="46">
         <v>22</v>
       </c>
-      <c r="C76" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D76" s="9"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="46">
+      <c r="C35" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="46">
         <v>23</v>
       </c>
-      <c r="C77" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" s="9"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="46">
+      <c r="C36" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="46">
         <v>24</v>
       </c>
-      <c r="C78" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D78" s="9"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="46">
+      <c r="C37" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="46">
         <v>25</v>
       </c>
-      <c r="C79" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="46"/>
-      <c r="C80" s="53"/>
+      <c r="C38" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
+      <c r="C39" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8417,8 +9125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8452,18 +9160,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -8493,14 +9201,14 @@
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="10"/>
       <c r="D11" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -8551,8 +9259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8581,12 +9289,12 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -8604,13 +9312,13 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -8625,7 +9333,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -8649,13 +9357,13 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
